--- a/数据整理/stocks/A股/深证主板/002149-西部材料.xlsx
+++ b/数据整理/stocks/A股/深证主板/002149-西部材料.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,12 +22,18 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
@@ -43,6 +49,12 @@
     <t>中融物联网主题灵活配置混合</t>
   </si>
   <si>
+    <t>0.48</t>
+  </si>
+  <si>
+    <t>0.36</t>
+  </si>
+  <si>
     <t>94.71</t>
   </si>
   <si>
@@ -53,6 +65,12 @@
   </si>
   <si>
     <t>4.51</t>
+  </si>
+  <si>
+    <t>0.0201</t>
+  </si>
+  <si>
+    <t>0.0162</t>
   </si>
 </sst>
 </file>
@@ -410,13 +428,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -432,44 +450,62 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2">
-        <v>7</v>
-      </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3">
         <v>8</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002149-西部材料.xlsx
+++ b/数据整理/stocks/A股/深证主板/002149-西部材料.xlsx
@@ -1,108 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2020-Q4" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>001261</t>
-  </si>
-  <si>
-    <t>003670</t>
-  </si>
-  <si>
-    <t>中融新机遇灵活配置混合</t>
-  </si>
-  <si>
-    <t>中融物联网主题灵活配置混合</t>
-  </si>
-  <si>
-    <t>0.48</t>
-  </si>
-  <si>
-    <t>0.36</t>
-  </si>
-  <si>
-    <t>94.71</t>
-  </si>
-  <si>
-    <t>94.14</t>
-  </si>
-  <si>
-    <t>4.19</t>
-  </si>
-  <si>
-    <t>4.51</t>
-  </si>
-  <si>
-    <t>0.0201</t>
-  </si>
-  <si>
-    <t>0.0162</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -125,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -427,89 +446,455 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001261</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中融新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003670</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中融物联网主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006314</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中融策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1718</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009954</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>北信瑞丰优选成长股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0459</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005117</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>金信价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006315</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中融策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002123</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>北信瑞丰外延增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005128</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏永康添福混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>26.52</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005118</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>金信价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002149-西部材料.xlsx
+++ b/数据整理/stocks/A股/深证主板/002149-西部材料.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -897,4 +898,134 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005493</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鑫元价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>75.48</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005494</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鑫元价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>75.48</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002149-西部材料.xlsx
+++ b/数据整理/stocks/A股/深证主板/002149-西部材料.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1028,4 +1029,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002149-西部材料.xlsx
+++ b/数据整理/stocks/A股/深证主板/002149-西部材料.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1037,7 +1038,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1048,17 +1049,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1068,14 +1089,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.02</v>
+          <t>519778</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银施罗德经济新动力混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>58.91</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.19</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.1576</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1084,14 +1127,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.28</v>
+          <t>008955</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银施罗德创新领航混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>41.14</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.05</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.1722</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1100,13 +1165,173 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>519727</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银成长30混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.17</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.62</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8131</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008734</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交银施罗德科锐科技创新混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.90</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.62</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4346</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.58</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>2</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.04</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002149-西部材料.xlsx
+++ b/数据整理/stocks/A股/深证主板/002149-西部材料.xlsx
@@ -6,11 +6,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,129 +454,97 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001261</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中融新机遇灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.48</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.71</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.19</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0201</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.58</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>003670</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中融物联网主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.14</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.51</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0162</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
+      <c r="D4" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.04</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -586,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -607,7 +575,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -637,36 +605,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006314</t>
+          <t>519778</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中融策略优选混合A</t>
+          <t>交银施罗德经济新动力混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.87</t>
+          <t>58.91</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.38</t>
+          <t>88.19</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.44</t>
+          <t>5.36</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1718</t>
+          <t>3.1576</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -675,36 +643,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009954</t>
+          <t>008955</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>北信瑞丰优选成长股票</t>
+          <t>交银施罗德创新领航混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>41.14</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.67</t>
+          <t>87.05</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.78</t>
+          <t>5.28</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0459</t>
+          <t>2.1722</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -713,36 +681,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005117</t>
+          <t>519727</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>金信价值精选灵活配置混合A</t>
+          <t>交银成长30混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>15.17</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.36</t>
+          <t>81.62</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.01</t>
+          <t>5.36</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0262</t>
+          <t>0.8131</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -751,150 +719,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006315</t>
+          <t>008734</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中融策略优选混合C</t>
+          <t>交银施罗德科锐科技创新混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>9.90</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.38</t>
+          <t>84.62</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.44</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0244</t>
+          <t>0.4346</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>002123</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>北信瑞丰外延增长主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.71</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.59</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0083</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>005128</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华夏永康添福混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.37</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>26.52</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0037</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>005118</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>金信价值精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>92.36</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.01</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0021</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1038,7 +892,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1059,7 +913,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1089,36 +943,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>519778</t>
+          <t>006314</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>交银施罗德经济新动力混合</t>
+          <t>中融策略优选混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>58.91</t>
+          <t>3.87</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>88.19</t>
+          <t>94.38</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.36</t>
+          <t>4.44</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.1576</t>
+          <t>0.1718</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1127,36 +981,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008955</t>
+          <t>009954</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>交银施罗德创新领航混合</t>
+          <t>北信瑞丰优选成长股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>41.14</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>87.05</t>
+          <t>93.67</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.28</t>
+          <t>4.78</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.1722</t>
+          <t>0.0459</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1165,36 +1019,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>519727</t>
+          <t>005117</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>交银成长30混合</t>
+          <t>金信价值精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>15.17</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>81.62</t>
+          <t>92.36</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.36</t>
+          <t>3.01</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.8131</t>
+          <t>0.0262</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -1203,36 +1057,150 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>008734</t>
+          <t>006315</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>交银施罗德科锐科技创新混合</t>
+          <t>中融策略优选混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>9.90</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>84.62</t>
+          <t>94.38</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>4.44</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.4346</t>
+          <t>0.0244</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002123</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>北信瑞丰外延增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005128</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏永康添福混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>26.52</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005118</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>金信价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1246,96 +1214,128 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.58</v>
+          <t>001261</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中融新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.28</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.04</v>
+          <t>003670</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中融物联网主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002149-西部材料.xlsx
+++ b/数据整理/stocks/A股/深证主板/002149-西部材料.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D2" t="n">
-        <v>6.58</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02</v>
+        <v>6.58</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.28</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -549,6 +566,480 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008188</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源稳健增长三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>66.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6234</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002258</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.20</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5022</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010826</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成产业趋势混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.59</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4427</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010827</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成产业趋势混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2403</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011287</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源聚慧三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>66.61</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0821</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006775</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源优质成长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>69.80</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0729</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006216</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源价值成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>65.31</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002407</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>前海开源恒远灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>67.57</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006217</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>前海开源价值成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>65.31</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002020</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国都创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>65.45</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005247</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国都量化精选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>75.50</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -756,7 +1247,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -886,7 +1377,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1208,7 +1699,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002149-西部材料.xlsx
+++ b/数据整理/stocks/A股/深证主板/002149-西部材料.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D2" t="n">
-        <v>2.04</v>
+        <v>2.98</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D3" t="n">
-        <v>6.58</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02</v>
+        <v>6.58</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.28</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>2</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -566,6 +583,632 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008188</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源稳健增长三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.91</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0013</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010826</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成产业趋势混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4741</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000690</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源大海洋战略经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2945</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001178</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源再融资主题精选股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2578</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010296</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家互联互通中国优势量化策略混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2487</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010827</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成产业趋势混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1426</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011287</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源聚慧三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1290</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006775</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>前海开源优质成长混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1173</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003857</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>前海开源周期优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1154</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000969</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>前海开源大安全核心精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0583</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006216</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>前海开源价值成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0506</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003858</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>前海开源周期优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010297</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>万家互联互通中国优势量化策略混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006217</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>前海开源价值成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002020</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国都创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>83.47</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1039,7 +1682,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1247,7 +1890,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1377,7 +2020,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1699,7 +2342,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
